--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed3/result_data_RandomForest.xlsx
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.19770000000001</v>
+        <v>-21.14230000000001</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.52009999999998</v>
+        <v>-20.47339999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.40000000000003</v>
+        <v>-22.41370000000003</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -661,7 +661,7 @@
         <v>-8.92</v>
       </c>
       <c r="E13" t="n">
-        <v>12.1431</v>
+        <v>12.2045</v>
       </c>
     </row>
     <row r="14">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.40040000000003</v>
+        <v>-22.20900000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
